--- a/Miami Marlins.xlsx
+++ b/Miami Marlins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,9 +22,15 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>MIA</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,120 +429,138 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>2219444</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
         <v>613062</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>72900</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>118078000</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>1586322</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>62</v>
+      </c>
+      <c r="F3">
         <v>564684</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>65520</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>33601900</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>1732283</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
         <v>657207</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>74520</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>41836900</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>1752235</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
         <v>603732</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>66960</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>68056500</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>1712417</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
         <v>727846</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>78960</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>77314202</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
